--- a/Exported csv/table_H3_mean_sem.xlsx
+++ b/Exported csv/table_H3_mean_sem.xlsx
@@ -409,17 +409,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jan</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1766.820232954545</v>
+        <v>1766.8202</v>
       </c>
       <c r="E2" t="n">
-        <v>229.2164835529218</v>
+        <v>229.2165</v>
       </c>
       <c r="F2" t="n">
-        <v>2150.241213735865</v>
+        <v>2150.2412</v>
       </c>
       <c r="G2" t="n">
         <v>88</v>
@@ -436,17 +436,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>feb</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1661.432801204819</v>
+        <v>1661.4328</v>
       </c>
       <c r="E3" t="n">
-        <v>284.9497160372919</v>
+        <v>284.9497</v>
       </c>
       <c r="F3" t="n">
-        <v>2596.015461353777</v>
+        <v>2596.0155</v>
       </c>
       <c r="G3" t="n">
         <v>83</v>
@@ -463,17 +463,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1392.246359223301</v>
+        <v>1392.2464</v>
       </c>
       <c r="E4" t="n">
-        <v>195.747162902606</v>
+        <v>195.7472</v>
       </c>
       <c r="F4" t="n">
-        <v>1986.61673047299</v>
+        <v>1986.6167</v>
       </c>
       <c r="G4" t="n">
         <v>103</v>
@@ -490,17 +490,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>apr</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1684.110809523809</v>
+        <v>1684.1108</v>
       </c>
       <c r="E5" t="n">
-        <v>210.2086244625244</v>
+        <v>210.2086</v>
       </c>
       <c r="F5" t="n">
-        <v>2153.997425447578</v>
+        <v>2153.9974</v>
       </c>
       <c r="G5" t="n">
         <v>105</v>
@@ -517,17 +517,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>May</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1567.715663043479</v>
+        <v>1567.7157</v>
       </c>
       <c r="E6" t="n">
-        <v>261.7805737604958</v>
+        <v>261.7806</v>
       </c>
       <c r="F6" t="n">
-        <v>1775.482234415547</v>
+        <v>1775.4822</v>
       </c>
       <c r="G6" t="n">
         <v>46</v>
@@ -544,17 +544,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>jun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1212.093416666667</v>
+        <v>1212.0934</v>
       </c>
       <c r="E7" t="n">
-        <v>152.3768397598798</v>
+        <v>152.3768</v>
       </c>
       <c r="F7" t="n">
-        <v>834.6023237783626</v>
+        <v>834.6023</v>
       </c>
       <c r="G7" t="n">
         <v>30</v>
@@ -571,17 +571,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jul</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1434.231863636363</v>
+        <v>1434.2319</v>
       </c>
       <c r="E8" t="n">
-        <v>204.7009333449731</v>
+        <v>204.7009</v>
       </c>
       <c r="F8" t="n">
-        <v>1518.102752180059</v>
+        <v>1518.1028</v>
       </c>
       <c r="G8" t="n">
         <v>55</v>
@@ -598,17 +598,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1254.705948275862</v>
+        <v>1254.7059</v>
       </c>
       <c r="E9" t="n">
-        <v>141.2890265680591</v>
+        <v>141.289</v>
       </c>
       <c r="F9" t="n">
-        <v>1076.025168690716</v>
+        <v>1076.0252</v>
       </c>
       <c r="G9" t="n">
         <v>58</v>
@@ -625,17 +625,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1366.844041666666</v>
+        <v>1366.844</v>
       </c>
       <c r="E10" t="n">
-        <v>172.4448680436057</v>
+        <v>172.4449</v>
       </c>
       <c r="F10" t="n">
-        <v>1335.752204143641</v>
+        <v>1335.7522</v>
       </c>
       <c r="G10" t="n">
         <v>60</v>
@@ -652,17 +652,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>oct</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1629.139859375</v>
+        <v>1629.1399</v>
       </c>
       <c r="E11" t="n">
-        <v>209.6539370385977</v>
+        <v>209.6539</v>
       </c>
       <c r="F11" t="n">
-        <v>1677.231496308781</v>
+        <v>1677.2315</v>
       </c>
       <c r="G11" t="n">
         <v>64</v>
@@ -679,17 +679,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nov</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1510.743288135593</v>
+        <v>1510.7433</v>
       </c>
       <c r="E12" t="n">
-        <v>215.2497519062111</v>
+        <v>215.2498</v>
       </c>
       <c r="F12" t="n">
-        <v>1653.364716584166</v>
+        <v>1653.3647</v>
       </c>
       <c r="G12" t="n">
         <v>59</v>
@@ -706,17 +706,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dec</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1476.431120253164</v>
+        <v>1476.4311</v>
       </c>
       <c r="E13" t="n">
-        <v>164.9748047548647</v>
+        <v>164.9748</v>
       </c>
       <c r="F13" t="n">
-        <v>1466.328138619918</v>
+        <v>1466.3281</v>
       </c>
       <c r="G13" t="n">
         <v>79</v>
